--- a/刘鹏举6月考勤表.xlsx
+++ b/刘鹏举6月考勤表.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
-  <si>
-    <t>刘鹏举5月考勤表</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+  <si>
+    <t>刘鹏举6月考勤表</t>
   </si>
   <si>
     <t>项目名称：理工数传</t>
@@ -37,9 +37,6 @@
     <t>星期四</t>
   </si>
   <si>
-    <t>法定假日</t>
-  </si>
-  <si>
     <t>星期五</t>
   </si>
   <si>
@@ -58,13 +55,19 @@
     <t>星期三</t>
   </si>
   <si>
-    <t>13h</t>
-  </si>
-  <si>
-    <t>12h</t>
+    <t>加班5h</t>
+  </si>
+  <si>
+    <t>1h(加班4h-请假3h)</t>
+  </si>
+  <si>
+    <t>加班4h</t>
   </si>
   <si>
     <t>小计</t>
+  </si>
+  <si>
+    <t>加班10小时</t>
   </si>
 </sst>
 </file>
@@ -72,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -100,8 +103,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,24 +171,63 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,13 +239,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -173,76 +246,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -253,13 +256,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,169 +340,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,11 +465,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,8 +507,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,41 +556,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,133 +580,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,7 +1102,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="15" customHeight="1" outlineLevelCol="6"/>
@@ -1151,8 +1154,8 @@
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>7</v>
+      <c r="C4" s="10">
+        <v>1</v>
       </c>
       <c r="D4" s="11"/>
       <c r="G4" s="3"/>
@@ -1162,7 +1165,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -1175,10 +1178,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="11"/>
       <c r="G6" s="3"/>
@@ -1188,10 +1191,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="11"/>
       <c r="G7" s="3"/>
@@ -1201,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="10">
         <v>1</v>
@@ -1214,10 +1217,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="11"/>
       <c r="G9" s="3"/>
@@ -1227,10 +1230,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="11"/>
       <c r="G10" s="3"/>
@@ -1253,7 +1256,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="10">
         <v>1</v>
@@ -1266,10 +1269,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="12"/>
       <c r="G13" s="3"/>
@@ -1279,10 +1282,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="11"/>
       <c r="G14" s="13"/>
@@ -1292,7 +1295,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="10">
         <v>1</v>
@@ -1305,7 +1308,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="10">
         <v>1</v>
@@ -1317,10 +1320,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="11"/>
     </row>
@@ -1341,22 +1344,24 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="9">
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="11"/>
     </row>
@@ -1365,10 +1370,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="11"/>
     </row>
@@ -1377,34 +1382,38 @@
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" customHeight="1" spans="1:4">
       <c r="A23" s="9">
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="11"/>
     </row>
     <row r="24" customHeight="1" spans="1:4">
       <c r="A24" s="9">
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="11"/>
     </row>
@@ -1425,7 +1434,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="10">
         <v>1</v>
@@ -1437,10 +1446,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="11"/>
     </row>
@@ -1449,10 +1458,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="11"/>
     </row>
@@ -1461,7 +1470,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="10">
         <v>1</v>
@@ -1473,7 +1482,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="10">
         <v>1</v>
@@ -1485,10 +1494,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="C31" s="10">
+        <v>1</v>
       </c>
       <c r="D31" s="11"/>
     </row>
@@ -1499,8 +1508,8 @@
       <c r="B32" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>7</v>
+      <c r="C32" s="10">
+        <v>1</v>
       </c>
       <c r="D32" s="11"/>
     </row>
@@ -1509,23 +1518,17 @@
         <v>30</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="C33" s="10">
+        <v>1</v>
+      </c>
       <c r="D33" s="11"/>
     </row>
     <row r="34" customHeight="1" spans="1:4">
-      <c r="A34" s="9">
-        <v>31</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="10">
-        <v>0</v>
-      </c>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="11"/>
     </row>
     <row r="35" customHeight="1" spans="1:4">
@@ -1534,9 +1537,11 @@
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="10">
-        <v>21</v>
-      </c>
-      <c r="D35" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/刘鹏举6月考勤表.xlsx
+++ b/刘鹏举6月考勤表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>刘鹏举6月考勤表</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>加班4h</t>
+  </si>
+  <si>
+    <t>加班</t>
   </si>
   <si>
     <t>小计</t>
@@ -75,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -103,6 +106,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -112,37 +175,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,12 +197,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -177,73 +226,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -256,187 +259,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,26 +468,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,33 +501,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -556,6 +524,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -568,145 +571,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,7 +1105,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="15" customHeight="1" outlineLevelCol="6"/>
@@ -1461,9 +1464,11 @@
         <v>9</v>
       </c>
       <c r="C28" s="10">
-        <v>0</v>
-      </c>
-      <c r="D28" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="29" customHeight="1" spans="1:4">
       <c r="A29" s="9">
@@ -1533,14 +1538,14 @@
     </row>
     <row r="35" customHeight="1" spans="1:4">
       <c r="A35" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="10">
-        <v>22</v>
+        <v>24.2</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
